--- a/Sentence2vec/input/data_train.xlsx
+++ b/Sentence2vec/input/data_train.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -3315,7 +3315,7 @@
   <dimension ref="A1:B1001"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A985" workbookViewId="0">
-      <selection activeCell="F996" sqref="F996"/>
+      <selection activeCell="B1008" sqref="B1008"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
